--- a/Industry/201612-201907/HKD/MN/Analysis_50_9.2 - Stoles and shawls_HKD__MN.xlsx
+++ b/Industry/201612-201907/HKD/MN/Analysis_50_9.2 - Stoles and shawls_HKD__MN.xlsx
@@ -9,25 +9,28 @@
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="TXbycty" sheetId="2" r:id="rId2"/>
-    <sheet name="TXbyEU" sheetId="3" r:id="rId3"/>
-    <sheet name="TXbyAsean" sheetId="4" r:id="rId4"/>
-    <sheet name="TXbyAsia" sheetId="5" r:id="rId5"/>
-    <sheet name="IMbyctyasOrigin" sheetId="6" r:id="rId6"/>
-    <sheet name="IMbyctyasOrigin_Q" sheetId="7" r:id="rId7"/>
-    <sheet name="IMbyEuropeasOrigin" sheetId="8" r:id="rId8"/>
-    <sheet name="TXbyproduct" sheetId="9" r:id="rId9"/>
-    <sheet name="DXbycty" sheetId="10" r:id="rId10"/>
-    <sheet name="DXbyEU" sheetId="11" r:id="rId11"/>
-    <sheet name="DXbyAsean" sheetId="12" r:id="rId12"/>
-    <sheet name="DXbyAsia" sheetId="13" r:id="rId13"/>
-    <sheet name="DXbyproduct" sheetId="14" r:id="rId14"/>
+    <sheet name="TXbycty_Q" sheetId="3" r:id="rId3"/>
+    <sheet name="TXbyEU" sheetId="4" r:id="rId4"/>
+    <sheet name="TXbyAsean" sheetId="5" r:id="rId5"/>
+    <sheet name="TXbyAsia" sheetId="6" r:id="rId6"/>
+    <sheet name="IMbyctyasOrigin" sheetId="7" r:id="rId7"/>
+    <sheet name="IMbyctyasOrigin_Q" sheetId="8" r:id="rId8"/>
+    <sheet name="IMbyEuropeasOrigin" sheetId="9" r:id="rId9"/>
+    <sheet name="TXbyproduct" sheetId="10" r:id="rId10"/>
+    <sheet name="DXbycty" sheetId="11" r:id="rId11"/>
+    <sheet name="DXbycty_Q" sheetId="12" r:id="rId12"/>
+    <sheet name="DXbyEU" sheetId="13" r:id="rId13"/>
+    <sheet name="DXbyAsean" sheetId="14" r:id="rId14"/>
+    <sheet name="DXbyAsia" sheetId="15" r:id="rId15"/>
+    <sheet name="DXbyproduct" sheetId="16" r:id="rId16"/>
+    <sheet name="RXbycty_Q" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="99">
   <si>
     <t>201612</t>
   </si>
@@ -53,6 +56,9 @@
     <t>201907_% CHG</t>
   </si>
   <si>
+    <t>HKD MN</t>
+  </si>
+  <si>
     <t>Domestic Exports</t>
   </si>
   <si>
@@ -66,6 +72,15 @@
   </si>
   <si>
     <t>Imports</t>
+  </si>
+  <si>
+    <t>Total Exports Quantity</t>
+  </si>
+  <si>
+    <t>Domestic Exports Quantity</t>
+  </si>
+  <si>
+    <t>Re-exports Quantity</t>
   </si>
   <si>
     <t>Imports by Origin Quantity</t>
@@ -87,9 +102,6 @@
   </si>
   <si>
     <t>201907_% Share of overall TX</t>
-  </si>
-  <si>
-    <t>HKD MN</t>
   </si>
   <si>
     <t>All individual countries</t>
@@ -191,6 +203,21 @@
     <t>TURKEY</t>
   </si>
   <si>
+    <t>201612_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201712_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201807_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201812_% Share of overall TX_Q</t>
+  </si>
+  <si>
+    <t>201907_% Share of overall TX_Q</t>
+  </si>
+  <si>
     <t>EU</t>
   </si>
   <si>
@@ -273,6 +300,33 @@
   </si>
   <si>
     <t>inf</t>
+  </si>
+  <si>
+    <t>201612_% Share of overall DX_Q</t>
+  </si>
+  <si>
+    <t>201712_% Share of overall DX_Q</t>
+  </si>
+  <si>
+    <t>201807_% Share of overall DX_Q</t>
+  </si>
+  <si>
+    <t>201812_% Share of overall DX_Q</t>
+  </si>
+  <si>
+    <t>201612_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201712_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201807_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201812_% Share of overall RX_Q</t>
+  </si>
+  <si>
+    <t>201907_% Share of overall RX_Q</t>
   </si>
 </sst>
 </file>
@@ -630,13 +684,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +721,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0.193</v>
@@ -693,7 +750,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>48.557</v>
@@ -722,7 +779,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>37.626</v>
@@ -751,7 +808,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>48.75</v>
@@ -780,7 +837,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>103.315</v>
@@ -809,30 +866,117 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
+        <v>0.051</v>
+      </c>
+      <c r="C7">
+        <v>0.051</v>
+      </c>
+      <c r="D7">
+        <v>1.302</v>
+      </c>
+      <c r="E7">
+        <v>0.014</v>
+      </c>
+      <c r="F7">
+        <v>0.043</v>
+      </c>
+      <c r="G7">
+        <v>-16.422</v>
+      </c>
+      <c r="H7">
+        <v>0.013</v>
+      </c>
+      <c r="I7">
+        <v>-3.856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-65.625</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.051</v>
+      </c>
+      <c r="C9">
+        <v>0.051</v>
+      </c>
+      <c r="D9">
+        <v>1.207</v>
+      </c>
+      <c r="E9">
+        <v>0.014</v>
+      </c>
+      <c r="F9">
+        <v>0.043</v>
+      </c>
+      <c r="G9">
+        <v>-16.36</v>
+      </c>
+      <c r="H9">
+        <v>0.013</v>
+      </c>
+      <c r="I9">
+        <v>-3.701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
         <v>0.08599999999999999</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>0.133</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>54.12</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>0.08599999999999999</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>0.16</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>20.176</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>0.164</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>90.425</v>
       </c>
     </row>
@@ -842,6 +986,301 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>48.75</v>
+      </c>
+      <c r="C2">
+        <v>57.914</v>
+      </c>
+      <c r="D2">
+        <v>18.798</v>
+      </c>
+      <c r="E2">
+        <v>10.936</v>
+      </c>
+      <c r="F2">
+        <v>35.726</v>
+      </c>
+      <c r="G2">
+        <v>-38.312</v>
+      </c>
+      <c r="H2">
+        <v>13.658</v>
+      </c>
+      <c r="I2">
+        <v>24.883</v>
+      </c>
+      <c r="J2">
+        <v>166.984</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>20.226</v>
+      </c>
+      <c r="C3">
+        <v>20.687</v>
+      </c>
+      <c r="D3">
+        <v>2.279</v>
+      </c>
+      <c r="E3">
+        <v>3.63</v>
+      </c>
+      <c r="F3">
+        <v>14.068</v>
+      </c>
+      <c r="G3">
+        <v>-31.997</v>
+      </c>
+      <c r="H3">
+        <v>7.129</v>
+      </c>
+      <c r="I3">
+        <v>96.377</v>
+      </c>
+      <c r="J3">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="K3">
+        <v>41.489</v>
+      </c>
+      <c r="L3">
+        <v>35.72</v>
+      </c>
+      <c r="M3">
+        <v>33.196</v>
+      </c>
+      <c r="N3">
+        <v>39.377</v>
+      </c>
+      <c r="O3">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>15.706</v>
+      </c>
+      <c r="C4">
+        <v>22.045</v>
+      </c>
+      <c r="D4">
+        <v>40.367</v>
+      </c>
+      <c r="E4">
+        <v>4.744</v>
+      </c>
+      <c r="F4">
+        <v>12.229</v>
+      </c>
+      <c r="G4">
+        <v>-44.526</v>
+      </c>
+      <c r="H4">
+        <v>5.343</v>
+      </c>
+      <c r="I4">
+        <v>12.61</v>
+      </c>
+      <c r="J4">
+        <v>60.067</v>
+      </c>
+      <c r="K4">
+        <v>32.216</v>
+      </c>
+      <c r="L4">
+        <v>38.066</v>
+      </c>
+      <c r="M4">
+        <v>43.382</v>
+      </c>
+      <c r="N4">
+        <v>34.231</v>
+      </c>
+      <c r="O4">
+        <v>39.118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>5.438</v>
+      </c>
+      <c r="C5">
+        <v>4.149</v>
+      </c>
+      <c r="D5">
+        <v>-23.702</v>
+      </c>
+      <c r="E5">
+        <v>1.112</v>
+      </c>
+      <c r="F5">
+        <v>4.447</v>
+      </c>
+      <c r="G5">
+        <v>7.188</v>
+      </c>
+      <c r="H5">
+        <v>0.634</v>
+      </c>
+      <c r="I5">
+        <v>-43.008</v>
+      </c>
+      <c r="J5">
+        <v>15.78</v>
+      </c>
+      <c r="K5">
+        <v>11.155</v>
+      </c>
+      <c r="L5">
+        <v>7.164</v>
+      </c>
+      <c r="M5">
+        <v>10.165</v>
+      </c>
+      <c r="N5">
+        <v>12.449</v>
+      </c>
+      <c r="O5">
+        <v>4.639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>7.38</v>
+      </c>
+      <c r="C6">
+        <v>11.033</v>
+      </c>
+      <c r="D6">
+        <v>49.487</v>
+      </c>
+      <c r="E6">
+        <v>1.45</v>
+      </c>
+      <c r="F6">
+        <v>4.981</v>
+      </c>
+      <c r="G6">
+        <v>-54.848</v>
+      </c>
+      <c r="H6">
+        <v>0.552</v>
+      </c>
+      <c r="I6">
+        <v>-61.915</v>
+      </c>
+      <c r="J6">
+        <v>25.397</v>
+      </c>
+      <c r="K6">
+        <v>15.139</v>
+      </c>
+      <c r="L6">
+        <v>19.05</v>
+      </c>
+      <c r="M6">
+        <v>13.257</v>
+      </c>
+      <c r="N6">
+        <v>13.943</v>
+      </c>
+      <c r="O6">
+        <v>4.043</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N34"/>
   <sheetViews>
@@ -851,7 +1290,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -878,24 +1317,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -930,7 +1369,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -965,7 +1404,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -994,7 +1433,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1003,7 +1442,7 @@
         <v>0.031</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1035,7 +1474,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0.167</v>
@@ -1073,7 +1512,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1102,7 +1541,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1125,7 +1564,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1160,7 +1599,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1195,7 +1634,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1230,7 +1669,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1265,7 +1704,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1300,7 +1739,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1309,7 +1748,7 @@
         <v>0.08</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>0.04</v>
@@ -1344,7 +1783,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1379,7 +1818,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1414,7 +1853,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1449,7 +1888,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1484,7 +1923,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1519,7 +1958,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0.193</v>
@@ -1563,7 +2002,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1583,7 +2022,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1603,7 +2042,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1623,7 +2062,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1637,7 +2076,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1651,7 +2090,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1665,7 +2104,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>0.026</v>
@@ -1685,7 +2124,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1699,7 +2138,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1713,7 +2152,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1727,7 +2166,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1741,7 +2180,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1773,7 +2212,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1793,7 +2232,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1816,7 +2255,982 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-100</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>71.875</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-100</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>43.75</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>22.222</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>-100</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>28.125</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>300</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>-65.625</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>-100</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
@@ -1826,7 +3240,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1850,24 +3264,24 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1902,7 +3316,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1937,7 +3351,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1972,7 +3386,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2007,7 +3421,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2042,7 +3456,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2051,7 +3465,7 @@
         <v>0.031</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2083,7 +3497,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2092,7 +3506,7 @@
         <v>0.031</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2124,7 +3538,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2144,7 +3558,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2164,7 +3578,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2178,7 +3592,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2192,7 +3606,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2206,7 +3620,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2220,7 +3634,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2243,7 +3657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -2253,7 +3667,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2271,24 +3685,24 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2311,7 +3725,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2340,7 +3754,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2375,7 +3789,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2389,7 +3803,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2424,7 +3838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -2434,7 +3848,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2461,24 +3875,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2513,7 +3927,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2522,7 +3936,7 @@
         <v>0.08</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>0.04</v>
@@ -2557,7 +3971,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2592,7 +4006,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2627,7 +4041,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2662,7 +4076,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2685,7 +4099,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2714,7 +4128,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2723,7 +4137,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>0.04</v>
@@ -2758,7 +4172,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2772,7 +4186,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2807,7 +4221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -2817,7 +4231,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2844,24 +4258,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2870,7 +4284,7 @@
         <v>0.03</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2902,7 +4316,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2937,7 +4351,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2946,7 +4360,7 @@
         <v>0.031</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2978,7 +4392,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>0.193</v>
@@ -3022,7 +4436,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0.193</v>
@@ -3062,6 +4476,1236 @@
       </c>
       <c r="N6">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.051</v>
+      </c>
+      <c r="C2">
+        <v>0.051</v>
+      </c>
+      <c r="D2">
+        <v>1.207</v>
+      </c>
+      <c r="E2">
+        <v>0.014</v>
+      </c>
+      <c r="F2">
+        <v>0.043</v>
+      </c>
+      <c r="G2">
+        <v>-16.36</v>
+      </c>
+      <c r="H2">
+        <v>0.013</v>
+      </c>
+      <c r="I2">
+        <v>-3.701</v>
+      </c>
+      <c r="J2">
+        <v>0.171</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.024</v>
+      </c>
+      <c r="C3">
+        <v>0.024</v>
+      </c>
+      <c r="D3">
+        <v>0.23</v>
+      </c>
+      <c r="E3">
+        <v>0.003</v>
+      </c>
+      <c r="F3">
+        <v>0.011</v>
+      </c>
+      <c r="G3">
+        <v>-53.051</v>
+      </c>
+      <c r="H3">
+        <v>0.01</v>
+      </c>
+      <c r="I3">
+        <v>222.066</v>
+      </c>
+      <c r="J3">
+        <v>0.073</v>
+      </c>
+      <c r="K3">
+        <v>47.332</v>
+      </c>
+      <c r="L3">
+        <v>46.875</v>
+      </c>
+      <c r="M3">
+        <v>23.371</v>
+      </c>
+      <c r="N3">
+        <v>26.312</v>
+      </c>
+      <c r="O3">
+        <v>78.16200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0.012</v>
+      </c>
+      <c r="C4">
+        <v>0.011</v>
+      </c>
+      <c r="D4">
+        <v>-8.448</v>
+      </c>
+      <c r="E4">
+        <v>0.005</v>
+      </c>
+      <c r="F4">
+        <v>0.014</v>
+      </c>
+      <c r="G4">
+        <v>23.924</v>
+      </c>
+      <c r="H4">
+        <v>0.001</v>
+      </c>
+      <c r="I4">
+        <v>-68.825</v>
+      </c>
+      <c r="J4">
+        <v>0.043</v>
+      </c>
+      <c r="K4">
+        <v>24.268</v>
+      </c>
+      <c r="L4">
+        <v>21.953</v>
+      </c>
+      <c r="M4">
+        <v>33.67</v>
+      </c>
+      <c r="N4">
+        <v>32.526</v>
+      </c>
+      <c r="O4">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0.001</v>
+      </c>
+      <c r="C5">
+        <v>0.003</v>
+      </c>
+      <c r="D5">
+        <v>123.467</v>
+      </c>
+      <c r="E5">
+        <v>0.005</v>
+      </c>
+      <c r="F5">
+        <v>0.013</v>
+      </c>
+      <c r="G5">
+        <v>419.332</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-92.45399999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.022</v>
+      </c>
+      <c r="K5">
+        <v>2.226</v>
+      </c>
+      <c r="L5">
+        <v>4.916</v>
+      </c>
+      <c r="M5">
+        <v>34.899</v>
+      </c>
+      <c r="N5">
+        <v>30.523</v>
+      </c>
+      <c r="O5">
+        <v>2.735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0.002</v>
+      </c>
+      <c r="C6">
+        <v>0.001</v>
+      </c>
+      <c r="D6">
+        <v>-33.582</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.001</v>
+      </c>
+      <c r="G6">
+        <v>-44.278</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-54.253</v>
+      </c>
+      <c r="J6">
+        <v>0.005</v>
+      </c>
+      <c r="K6">
+        <v>3.984</v>
+      </c>
+      <c r="L6">
+        <v>2.614</v>
+      </c>
+      <c r="M6">
+        <v>3.182</v>
+      </c>
+      <c r="N6">
+        <v>1.742</v>
+      </c>
+      <c r="O6">
+        <v>1.512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0.002</v>
+      </c>
+      <c r="C7">
+        <v>0.001</v>
+      </c>
+      <c r="D7">
+        <v>-46.911</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.001</v>
+      </c>
+      <c r="G7">
+        <v>-41.821</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-26.667</v>
+      </c>
+      <c r="J7">
+        <v>0.005</v>
+      </c>
+      <c r="K7">
+        <v>4.421</v>
+      </c>
+      <c r="L7">
+        <v>2.319</v>
+      </c>
+      <c r="M7">
+        <v>1.975</v>
+      </c>
+      <c r="N7">
+        <v>1.613</v>
+      </c>
+      <c r="O7">
+        <v>1.504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1300</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-47.619</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>755.556</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.006</v>
+      </c>
+      <c r="L8">
+        <v>0.082</v>
+      </c>
+      <c r="M8">
+        <v>0.132</v>
+      </c>
+      <c r="N8">
+        <v>0.051</v>
+      </c>
+      <c r="O8">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.001</v>
+      </c>
+      <c r="D9">
+        <v>71.32899999999999</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-68.98</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-5.714</v>
+      </c>
+      <c r="J9">
+        <v>0.002</v>
+      </c>
+      <c r="K9">
+        <v>0.849</v>
+      </c>
+      <c r="L9">
+        <v>1.437</v>
+      </c>
+      <c r="M9">
+        <v>0.768</v>
+      </c>
+      <c r="N9">
+        <v>0.533</v>
+      </c>
+      <c r="O9">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>345.833</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-48.598</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>65.95699999999999</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.047</v>
+      </c>
+      <c r="L10">
+        <v>0.209</v>
+      </c>
+      <c r="M10">
+        <v>0.344</v>
+      </c>
+      <c r="N10">
+        <v>0.129</v>
+      </c>
+      <c r="O10">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.613</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>-78.836</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.368</v>
+      </c>
+      <c r="L11">
+        <v>0.37</v>
+      </c>
+      <c r="N11">
+        <v>0.094</v>
+      </c>
+      <c r="O11">
+        <v>0.524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>7250</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.002</v>
+      </c>
+      <c r="G12">
+        <v>493.878</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>585.7140000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.002</v>
+      </c>
+      <c r="K12">
+        <v>0.008</v>
+      </c>
+      <c r="L12">
+        <v>0.575</v>
+      </c>
+      <c r="M12">
+        <v>0.051</v>
+      </c>
+      <c r="N12">
+        <v>4.082</v>
+      </c>
+      <c r="O12">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-38.462</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>225.833</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>571.429</v>
+      </c>
+      <c r="J13">
+        <v>0.001</v>
+      </c>
+      <c r="K13">
+        <v>0.386</v>
+      </c>
+      <c r="L13">
+        <v>0.235</v>
+      </c>
+      <c r="M13">
+        <v>0.051</v>
+      </c>
+      <c r="N13">
+        <v>0.914</v>
+      </c>
+      <c r="O13">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-55.34</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-63.043</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>164.706</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.204</v>
+      </c>
+      <c r="L14">
+        <v>0.09</v>
+      </c>
+      <c r="M14">
+        <v>0.124</v>
+      </c>
+      <c r="N14">
+        <v>0.04</v>
+      </c>
+      <c r="O14">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-45.536</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-21.311</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>82.60899999999999</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.222</v>
+      </c>
+      <c r="L15">
+        <v>0.119</v>
+      </c>
+      <c r="M15">
+        <v>0.168</v>
+      </c>
+      <c r="N15">
+        <v>0.112</v>
+      </c>
+      <c r="O15">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0.002</v>
+      </c>
+      <c r="C16">
+        <v>0.001</v>
+      </c>
+      <c r="D16">
+        <v>-42.656</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-96.798</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>35.714</v>
+      </c>
+      <c r="J16">
+        <v>0.003</v>
+      </c>
+      <c r="K16">
+        <v>3.234</v>
+      </c>
+      <c r="L16">
+        <v>1.832</v>
+      </c>
+      <c r="M16">
+        <v>0.205</v>
+      </c>
+      <c r="N16">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>0.003</v>
+      </c>
+      <c r="C17">
+        <v>0.006</v>
+      </c>
+      <c r="D17">
+        <v>91.79300000000001</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-99.76900000000001</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K17">
+        <v>6.246</v>
+      </c>
+      <c r="L17">
+        <v>11.836</v>
+      </c>
+      <c r="N17">
+        <v>0.033</v>
+      </c>
+      <c r="O17">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>0.001</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-85.783</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-44.944</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>-82.955</v>
+      </c>
+      <c r="J18">
+        <v>0.002</v>
+      </c>
+      <c r="K18">
+        <v>2.478</v>
+      </c>
+      <c r="L18">
+        <v>0.348</v>
+      </c>
+      <c r="M18">
+        <v>0.644</v>
+      </c>
+      <c r="N18">
+        <v>0.229</v>
+      </c>
+      <c r="O18">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>140</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>54.583</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-71.429</v>
+      </c>
+      <c r="J19">
+        <v>0.001</v>
+      </c>
+      <c r="K19">
+        <v>0.198</v>
+      </c>
+      <c r="L19">
+        <v>0.469</v>
+      </c>
+      <c r="M19">
+        <v>0.358</v>
+      </c>
+      <c r="N19">
+        <v>0.867</v>
+      </c>
+      <c r="O19">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0.001</v>
+      </c>
+      <c r="C20">
+        <v>0.001</v>
+      </c>
+      <c r="D20">
+        <v>9.345000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.002</v>
+      </c>
+      <c r="K20">
+        <v>2.266</v>
+      </c>
+      <c r="L20">
+        <v>2.448</v>
+      </c>
+      <c r="O20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>-9.615</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.103</v>
+      </c>
+      <c r="N21">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>10.278</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.001</v>
+      </c>
+      <c r="K22">
+        <v>0.712</v>
+      </c>
+      <c r="L22">
+        <v>0.776</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>-100</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.206</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>12.5</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>-66.667</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.047</v>
+      </c>
+      <c r="L32">
+        <v>0.053</v>
+      </c>
+      <c r="M32">
+        <v>0.059</v>
+      </c>
+      <c r="N32">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>-65.217</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.091</v>
+      </c>
+      <c r="L33">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>526.923</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.051</v>
+      </c>
+      <c r="L34">
+        <v>0.319</v>
       </c>
     </row>
   </sheetData>
@@ -3079,7 +5723,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3106,27 +5750,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>48.75</v>
@@ -3173,7 +5817,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>16.199</v>
@@ -3220,7 +5864,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>12.003</v>
@@ -3267,7 +5911,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>3.467</v>
@@ -3314,7 +5958,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0.093</v>
@@ -3361,7 +6005,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>2.265</v>
@@ -3408,7 +6052,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>2.994</v>
@@ -3455,7 +6099,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0.193</v>
@@ -3493,7 +6137,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0.008999999999999999</v>
@@ -3540,7 +6184,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>2.512</v>
@@ -3587,7 +6231,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>2.097</v>
@@ -3634,7 +6278,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1.108</v>
@@ -3681,7 +6325,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>0.168</v>
@@ -3728,7 +6372,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>0.13</v>
@@ -3775,7 +6419,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>1.077</v>
@@ -3822,7 +6466,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>0.5610000000000001</v>
@@ -3869,7 +6513,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>0.104</v>
@@ -3916,7 +6560,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>2.882</v>
@@ -3954,7 +6598,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>0.259</v>
@@ -3986,7 +6630,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>0.039</v>
@@ -4012,7 +6656,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>0.116</v>
@@ -4038,7 +6682,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>0.08799999999999999</v>
@@ -4061,7 +6705,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>0.022</v>
@@ -4081,7 +6725,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>0.007</v>
@@ -4101,7 +6745,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4115,7 +6759,7 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>0.026</v>
@@ -4135,7 +6779,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>0.01</v>
@@ -4152,7 +6796,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>0.004</v>
@@ -4169,7 +6813,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>0.02</v>
@@ -4189,7 +6833,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>0.041</v>
@@ -4209,7 +6853,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>0.187</v>
@@ -4250,7 +6894,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>0.021</v>
@@ -4276,7 +6920,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>0.063</v>
@@ -4306,6 +6950,1242 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.051</v>
+      </c>
+      <c r="C2">
+        <v>0.051</v>
+      </c>
+      <c r="D2">
+        <v>1.302</v>
+      </c>
+      <c r="E2">
+        <v>0.014</v>
+      </c>
+      <c r="F2">
+        <v>0.043</v>
+      </c>
+      <c r="G2">
+        <v>-16.422</v>
+      </c>
+      <c r="H2">
+        <v>0.013</v>
+      </c>
+      <c r="I2">
+        <v>-3.856</v>
+      </c>
+      <c r="J2">
+        <v>0.171</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.024</v>
+      </c>
+      <c r="C3">
+        <v>0.024</v>
+      </c>
+      <c r="D3">
+        <v>0.305</v>
+      </c>
+      <c r="E3">
+        <v>0.003</v>
+      </c>
+      <c r="F3">
+        <v>0.011</v>
+      </c>
+      <c r="G3">
+        <v>-52.995</v>
+      </c>
+      <c r="H3">
+        <v>0.01</v>
+      </c>
+      <c r="I3">
+        <v>219.863</v>
+      </c>
+      <c r="J3">
+        <v>0.073</v>
+      </c>
+      <c r="K3">
+        <v>47.317</v>
+      </c>
+      <c r="L3">
+        <v>46.852</v>
+      </c>
+      <c r="M3">
+        <v>23.494</v>
+      </c>
+      <c r="N3">
+        <v>26.35</v>
+      </c>
+      <c r="O3">
+        <v>78.16200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0.012</v>
+      </c>
+      <c r="C4">
+        <v>0.011</v>
+      </c>
+      <c r="D4">
+        <v>-8.5</v>
+      </c>
+      <c r="E4">
+        <v>0.005</v>
+      </c>
+      <c r="F4">
+        <v>0.014</v>
+      </c>
+      <c r="G4">
+        <v>23.924</v>
+      </c>
+      <c r="H4">
+        <v>0.001</v>
+      </c>
+      <c r="I4">
+        <v>-68.825</v>
+      </c>
+      <c r="J4">
+        <v>0.043</v>
+      </c>
+      <c r="K4">
+        <v>24.274</v>
+      </c>
+      <c r="L4">
+        <v>21.925</v>
+      </c>
+      <c r="M4">
+        <v>33.616</v>
+      </c>
+      <c r="N4">
+        <v>32.509</v>
+      </c>
+      <c r="O4">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0.001</v>
+      </c>
+      <c r="C5">
+        <v>0.003</v>
+      </c>
+      <c r="D5">
+        <v>123.467</v>
+      </c>
+      <c r="E5">
+        <v>0.005</v>
+      </c>
+      <c r="F5">
+        <v>0.013</v>
+      </c>
+      <c r="G5">
+        <v>419.332</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-92.45399999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.022</v>
+      </c>
+      <c r="K5">
+        <v>2.226</v>
+      </c>
+      <c r="L5">
+        <v>4.91</v>
+      </c>
+      <c r="M5">
+        <v>34.843</v>
+      </c>
+      <c r="N5">
+        <v>30.507</v>
+      </c>
+      <c r="O5">
+        <v>2.735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0.002</v>
+      </c>
+      <c r="C6">
+        <v>0.001</v>
+      </c>
+      <c r="D6">
+        <v>-33.582</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.001</v>
+      </c>
+      <c r="G6">
+        <v>-44.278</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-54.253</v>
+      </c>
+      <c r="J6">
+        <v>0.005</v>
+      </c>
+      <c r="K6">
+        <v>3.982</v>
+      </c>
+      <c r="L6">
+        <v>2.611</v>
+      </c>
+      <c r="M6">
+        <v>3.177</v>
+      </c>
+      <c r="N6">
+        <v>1.741</v>
+      </c>
+      <c r="O6">
+        <v>1.512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0.002</v>
+      </c>
+      <c r="C7">
+        <v>0.001</v>
+      </c>
+      <c r="D7">
+        <v>-46.911</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.001</v>
+      </c>
+      <c r="G7">
+        <v>-41.821</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-26.667</v>
+      </c>
+      <c r="J7">
+        <v>0.005</v>
+      </c>
+      <c r="K7">
+        <v>4.42</v>
+      </c>
+      <c r="L7">
+        <v>2.316</v>
+      </c>
+      <c r="M7">
+        <v>1.972</v>
+      </c>
+      <c r="N7">
+        <v>1.612</v>
+      </c>
+      <c r="O7">
+        <v>1.504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1300</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-47.619</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>755.556</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.006</v>
+      </c>
+      <c r="L8">
+        <v>0.082</v>
+      </c>
+      <c r="M8">
+        <v>0.131</v>
+      </c>
+      <c r="N8">
+        <v>0.051</v>
+      </c>
+      <c r="O8">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.001</v>
+      </c>
+      <c r="D9">
+        <v>71.32899999999999</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-68.98</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-5.714</v>
+      </c>
+      <c r="J9">
+        <v>0.002</v>
+      </c>
+      <c r="K9">
+        <v>0.849</v>
+      </c>
+      <c r="L9">
+        <v>1.435</v>
+      </c>
+      <c r="M9">
+        <v>0.767</v>
+      </c>
+      <c r="N9">
+        <v>0.533</v>
+      </c>
+      <c r="O9">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>345.833</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-48.598</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>65.95699999999999</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.047</v>
+      </c>
+      <c r="L10">
+        <v>0.209</v>
+      </c>
+      <c r="M10">
+        <v>0.343</v>
+      </c>
+      <c r="N10">
+        <v>0.129</v>
+      </c>
+      <c r="O10">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.613</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>-78.836</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.368</v>
+      </c>
+      <c r="L11">
+        <v>0.369</v>
+      </c>
+      <c r="N11">
+        <v>0.093</v>
+      </c>
+      <c r="O11">
+        <v>0.524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>7250</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.002</v>
+      </c>
+      <c r="G12">
+        <v>493.878</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>585.7140000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.002</v>
+      </c>
+      <c r="K12">
+        <v>0.008</v>
+      </c>
+      <c r="L12">
+        <v>0.574</v>
+      </c>
+      <c r="M12">
+        <v>0.051</v>
+      </c>
+      <c r="N12">
+        <v>4.08</v>
+      </c>
+      <c r="O12">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-38.462</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>225.833</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>571.429</v>
+      </c>
+      <c r="J13">
+        <v>0.001</v>
+      </c>
+      <c r="K13">
+        <v>0.386</v>
+      </c>
+      <c r="L13">
+        <v>0.234</v>
+      </c>
+      <c r="M13">
+        <v>0.051</v>
+      </c>
+      <c r="N13">
+        <v>0.914</v>
+      </c>
+      <c r="O13">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-55.34</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-63.043</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>164.706</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0.204</v>
+      </c>
+      <c r="L14">
+        <v>0.09</v>
+      </c>
+      <c r="M14">
+        <v>0.124</v>
+      </c>
+      <c r="N14">
+        <v>0.04</v>
+      </c>
+      <c r="O14">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-45.536</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-21.311</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>82.60899999999999</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.222</v>
+      </c>
+      <c r="L15">
+        <v>0.119</v>
+      </c>
+      <c r="M15">
+        <v>0.168</v>
+      </c>
+      <c r="N15">
+        <v>0.112</v>
+      </c>
+      <c r="O15">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>0.002</v>
+      </c>
+      <c r="C16">
+        <v>0.001</v>
+      </c>
+      <c r="D16">
+        <v>-42.656</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-96.798</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>35.714</v>
+      </c>
+      <c r="J16">
+        <v>0.003</v>
+      </c>
+      <c r="K16">
+        <v>3.233</v>
+      </c>
+      <c r="L16">
+        <v>1.83</v>
+      </c>
+      <c r="M16">
+        <v>0.204</v>
+      </c>
+      <c r="N16">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>0.003</v>
+      </c>
+      <c r="C17">
+        <v>0.006</v>
+      </c>
+      <c r="D17">
+        <v>91.79300000000001</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>-99.76900000000001</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K17">
+        <v>6.244</v>
+      </c>
+      <c r="L17">
+        <v>11.821</v>
+      </c>
+      <c r="N17">
+        <v>0.033</v>
+      </c>
+      <c r="O17">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>0.001</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>-82.10899999999999</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>-56.25</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>-82.955</v>
+      </c>
+      <c r="J18">
+        <v>0.002</v>
+      </c>
+      <c r="K18">
+        <v>2.477</v>
+      </c>
+      <c r="L18">
+        <v>0.437</v>
+      </c>
+      <c r="M18">
+        <v>0.643</v>
+      </c>
+      <c r="N18">
+        <v>0.229</v>
+      </c>
+      <c r="O18">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>140</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>54.583</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>-71.429</v>
+      </c>
+      <c r="J19">
+        <v>0.001</v>
+      </c>
+      <c r="K19">
+        <v>0.198</v>
+      </c>
+      <c r="L19">
+        <v>0.469</v>
+      </c>
+      <c r="M19">
+        <v>0.358</v>
+      </c>
+      <c r="N19">
+        <v>0.867</v>
+      </c>
+      <c r="O19">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>0.001</v>
+      </c>
+      <c r="C20">
+        <v>0.001</v>
+      </c>
+      <c r="D20">
+        <v>9.345000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.002</v>
+      </c>
+      <c r="K20">
+        <v>2.265</v>
+      </c>
+      <c r="L20">
+        <v>2.445</v>
+      </c>
+      <c r="O20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>-9.615</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.103</v>
+      </c>
+      <c r="N21">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>10.278</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.001</v>
+      </c>
+      <c r="K22">
+        <v>0.712</v>
+      </c>
+      <c r="L22">
+        <v>0.775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>-100</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0.206</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>12.5</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>-66.667</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0.047</v>
+      </c>
+      <c r="L32">
+        <v>0.053</v>
+      </c>
+      <c r="M32">
+        <v>0.058</v>
+      </c>
+      <c r="N32">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>-65.217</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.091</v>
+      </c>
+      <c r="L33">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>526.923</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.051</v>
+      </c>
+      <c r="L34">
+        <v>0.318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -4315,7 +8195,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4342,27 +8222,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>4.479</v>
@@ -4409,7 +8289,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>2.265</v>
@@ -4456,7 +8336,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>0.008999999999999999</v>
@@ -4503,7 +8383,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0.168</v>
@@ -4550,7 +8430,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>1.077</v>
@@ -4597,7 +8477,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>0.5610000000000001</v>
@@ -4644,7 +8524,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>0.104</v>
@@ -4691,7 +8571,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>0.116</v>
@@ -4717,7 +8597,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>0.08799999999999999</v>
@@ -4740,7 +8620,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>0.022</v>
@@ -4760,7 +8640,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0.007</v>
@@ -4780,7 +8660,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4794,7 +8674,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0.041</v>
@@ -4814,7 +8694,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>0.021</v>
@@ -4843,7 +8723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O6"/>
   <sheetViews>
@@ -4853,7 +8733,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4880,27 +8760,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>3.328</v>
@@ -4947,7 +8827,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2.882</v>
@@ -4985,7 +8865,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0.259</v>
@@ -5017,7 +8897,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0.004</v>
@@ -5034,7 +8914,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0.187</v>
@@ -5078,7 +8958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -5088,7 +8968,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5115,27 +8995,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>29.606</v>
@@ -5182,7 +9062,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>16.199</v>
@@ -5229,7 +9109,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3.467</v>
@@ -5276,7 +9156,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>2.994</v>
@@ -5323,7 +9203,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>2.512</v>
@@ -5370,7 +9250,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1.108</v>
@@ -5417,7 +9297,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>2.882</v>
@@ -5455,7 +9335,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.259</v>
@@ -5487,7 +9367,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0.004</v>
@@ -5504,7 +9384,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>0.187</v>
@@ -5541,732 +9421,6 @@
       </c>
       <c r="N11">
         <v>0.347</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>103.315</v>
-      </c>
-      <c r="C2">
-        <v>197.161</v>
-      </c>
-      <c r="D2">
-        <v>90.83499999999999</v>
-      </c>
-      <c r="E2">
-        <v>59.999</v>
-      </c>
-      <c r="F2">
-        <v>132.371</v>
-      </c>
-      <c r="G2">
-        <v>-32.861</v>
-      </c>
-      <c r="H2">
-        <v>160.598</v>
-      </c>
-      <c r="I2">
-        <v>167.668</v>
-      </c>
-      <c r="J2">
-        <v>653.444</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>76.416</v>
-      </c>
-      <c r="C3">
-        <v>163.862</v>
-      </c>
-      <c r="D3">
-        <v>114.436</v>
-      </c>
-      <c r="E3">
-        <v>51.877</v>
-      </c>
-      <c r="F3">
-        <v>114.675</v>
-      </c>
-      <c r="G3">
-        <v>-30.018</v>
-      </c>
-      <c r="H3">
-        <v>155.424</v>
-      </c>
-      <c r="I3">
-        <v>199.599</v>
-      </c>
-      <c r="J3">
-        <v>562.254</v>
-      </c>
-      <c r="K3">
-        <v>73.964</v>
-      </c>
-      <c r="L3">
-        <v>83.111</v>
-      </c>
-      <c r="M3">
-        <v>86.464</v>
-      </c>
-      <c r="N3">
-        <v>86.631</v>
-      </c>
-      <c r="O3">
-        <v>96.779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>24.586</v>
-      </c>
-      <c r="C4">
-        <v>26.037</v>
-      </c>
-      <c r="D4">
-        <v>5.9</v>
-      </c>
-      <c r="E4">
-        <v>6.925</v>
-      </c>
-      <c r="F4">
-        <v>16.171</v>
-      </c>
-      <c r="G4">
-        <v>-37.892</v>
-      </c>
-      <c r="H4">
-        <v>3.941</v>
-      </c>
-      <c r="I4">
-        <v>-43.095</v>
-      </c>
-      <c r="J4">
-        <v>77.66</v>
-      </c>
-      <c r="K4">
-        <v>23.797</v>
-      </c>
-      <c r="L4">
-        <v>13.206</v>
-      </c>
-      <c r="M4">
-        <v>11.542</v>
-      </c>
-      <c r="N4">
-        <v>12.216</v>
-      </c>
-      <c r="O4">
-        <v>2.454</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5">
-        <v>0.625</v>
-      </c>
-      <c r="J5">
-        <v>0.625</v>
-      </c>
-      <c r="O5">
-        <v>0.389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6">
-        <v>1.042</v>
-      </c>
-      <c r="C6">
-        <v>0.975</v>
-      </c>
-      <c r="D6">
-        <v>-6.437</v>
-      </c>
-      <c r="E6">
-        <v>0.611</v>
-      </c>
-      <c r="F6">
-        <v>0.847</v>
-      </c>
-      <c r="G6">
-        <v>-13.036</v>
-      </c>
-      <c r="H6">
-        <v>0.487</v>
-      </c>
-      <c r="I6">
-        <v>-20.327</v>
-      </c>
-      <c r="J6">
-        <v>3.961</v>
-      </c>
-      <c r="K6">
-        <v>1.008</v>
-      </c>
-      <c r="L6">
-        <v>0.494</v>
-      </c>
-      <c r="M6">
-        <v>1.018</v>
-      </c>
-      <c r="N6">
-        <v>0.64</v>
-      </c>
-      <c r="O6">
-        <v>0.303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>0.191</v>
-      </c>
-      <c r="C7">
-        <v>0.06</v>
-      </c>
-      <c r="D7">
-        <v>-68.749</v>
-      </c>
-      <c r="E7">
-        <v>0.105</v>
-      </c>
-      <c r="F7">
-        <v>0.105</v>
-      </c>
-      <c r="G7">
-        <v>75.61499999999999</v>
-      </c>
-      <c r="H7">
-        <v>0.053</v>
-      </c>
-      <c r="I7">
-        <v>-49.872</v>
-      </c>
-      <c r="J7">
-        <v>0.514</v>
-      </c>
-      <c r="K7">
-        <v>0.185</v>
-      </c>
-      <c r="L7">
-        <v>0.03</v>
-      </c>
-      <c r="M7">
-        <v>0.175</v>
-      </c>
-      <c r="N7">
-        <v>0.079</v>
-      </c>
-      <c r="O7">
-        <v>0.033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>0.054</v>
-      </c>
-      <c r="C8">
-        <v>0.172</v>
-      </c>
-      <c r="D8">
-        <v>220.011</v>
-      </c>
-      <c r="E8">
-        <v>0.015</v>
-      </c>
-      <c r="F8">
-        <v>0.035</v>
-      </c>
-      <c r="G8">
-        <v>-79.83799999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.033</v>
-      </c>
-      <c r="I8">
-        <v>117.253</v>
-      </c>
-      <c r="J8">
-        <v>0.308</v>
-      </c>
-      <c r="K8">
-        <v>0.052</v>
-      </c>
-      <c r="L8">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="M8">
-        <v>0.025</v>
-      </c>
-      <c r="N8">
-        <v>0.026</v>
-      </c>
-      <c r="O8">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>5.895</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.026</v>
-      </c>
-      <c r="J9">
-        <v>5.921</v>
-      </c>
-      <c r="L9">
-        <v>2.99</v>
-      </c>
-      <c r="O9">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10">
-        <v>0.059</v>
-      </c>
-      <c r="F10">
-        <v>0.059</v>
-      </c>
-      <c r="H10">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="I10">
-        <v>-84.86799999999999</v>
-      </c>
-      <c r="J10">
-        <v>0.128</v>
-      </c>
-      <c r="M10">
-        <v>0.099</v>
-      </c>
-      <c r="N10">
-        <v>0.045</v>
-      </c>
-      <c r="O10">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11">
-        <v>0.022</v>
-      </c>
-      <c r="C11">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="D11">
-        <v>281.492</v>
-      </c>
-      <c r="F11">
-        <v>0.015</v>
-      </c>
-      <c r="G11">
-        <v>-82.004</v>
-      </c>
-      <c r="H11">
-        <v>0.002</v>
-      </c>
-      <c r="J11">
-        <v>0.123</v>
-      </c>
-      <c r="K11">
-        <v>0.021</v>
-      </c>
-      <c r="L11">
-        <v>0.043</v>
-      </c>
-      <c r="N11">
-        <v>0.011</v>
-      </c>
-      <c r="O11">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>0.097</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.097</v>
-      </c>
-      <c r="K12">
-        <v>0.094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <v>0.166</v>
-      </c>
-      <c r="C13">
-        <v>0.021</v>
-      </c>
-      <c r="D13">
-        <v>-87.29600000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.029</v>
-      </c>
-      <c r="F13">
-        <v>0.065</v>
-      </c>
-      <c r="G13">
-        <v>209.359</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.281</v>
-      </c>
-      <c r="K13">
-        <v>0.16</v>
-      </c>
-      <c r="L13">
-        <v>0.011</v>
-      </c>
-      <c r="M13">
-        <v>0.049</v>
-      </c>
-      <c r="N13">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14">
-        <v>0.019</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.019</v>
-      </c>
-      <c r="L14">
-        <v>0.008999999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15">
-        <v>0.011</v>
-      </c>
-      <c r="F15">
-        <v>0.011</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.023</v>
-      </c>
-      <c r="M15">
-        <v>0.019</v>
-      </c>
-      <c r="N15">
-        <v>0.008999999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>0.361</v>
-      </c>
-      <c r="C16">
-        <v>0.022</v>
-      </c>
-      <c r="D16">
-        <v>-93.87</v>
-      </c>
-      <c r="E16">
-        <v>0.013</v>
-      </c>
-      <c r="F16">
-        <v>0.017</v>
-      </c>
-      <c r="G16">
-        <v>-22.163</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.413</v>
-      </c>
-      <c r="K16">
-        <v>0.349</v>
-      </c>
-      <c r="L16">
-        <v>0.011</v>
-      </c>
-      <c r="M16">
-        <v>0.022</v>
-      </c>
-      <c r="N16">
-        <v>0.013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17">
-        <v>0.018</v>
-      </c>
-      <c r="J17">
-        <v>0.018</v>
-      </c>
-      <c r="N17">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>0.002</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.002</v>
-      </c>
-      <c r="L18">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19">
-        <v>0.04</v>
-      </c>
-      <c r="C19">
-        <v>0.011</v>
-      </c>
-      <c r="D19">
-        <v>-72.825</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.05</v>
-      </c>
-      <c r="K19">
-        <v>0.038</v>
-      </c>
-      <c r="L19">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>0.278</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.278</v>
-      </c>
-      <c r="K20">
-        <v>0.269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>0.012</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.012</v>
-      </c>
-      <c r="K21">
-        <v>0.011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>0.052</v>
-      </c>
-      <c r="C22">
-        <v>0.001</v>
-      </c>
-      <c r="D22">
-        <v>-98.40600000000001</v>
-      </c>
-      <c r="E22">
-        <v>0.352</v>
-      </c>
-      <c r="F22">
-        <v>0.352</v>
-      </c>
-      <c r="G22">
-        <v>42626.667</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.758</v>
-      </c>
-      <c r="K22">
-        <v>0.05</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0.588</v>
-      </c>
-      <c r="N22">
-        <v>0.266</v>
       </c>
     </row>
   </sheetData>
@@ -6284,7 +9438,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -6311,54 +9465,54 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0.08599999999999999</v>
+        <v>103.315</v>
       </c>
       <c r="C2">
-        <v>0.133</v>
+        <v>197.161</v>
       </c>
       <c r="D2">
-        <v>54.12</v>
+        <v>90.83499999999999</v>
       </c>
       <c r="E2">
-        <v>0.08599999999999999</v>
+        <v>59.999</v>
       </c>
       <c r="F2">
-        <v>0.16</v>
+        <v>132.371</v>
       </c>
       <c r="G2">
-        <v>20.176</v>
+        <v>-32.861</v>
       </c>
       <c r="H2">
-        <v>0.164</v>
+        <v>160.598</v>
       </c>
       <c r="I2">
-        <v>90.425</v>
+        <v>167.668</v>
       </c>
       <c r="J2">
-        <v>0.629</v>
+        <v>653.444</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -6378,338 +9532,338 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>0.081</v>
+        <v>76.416</v>
       </c>
       <c r="C3">
-        <v>0.129</v>
+        <v>163.862</v>
       </c>
       <c r="D3">
-        <v>58.172</v>
+        <v>114.436</v>
       </c>
       <c r="E3">
-        <v>0.08500000000000001</v>
+        <v>51.877</v>
       </c>
       <c r="F3">
-        <v>0.157</v>
+        <v>114.675</v>
       </c>
       <c r="G3">
-        <v>22.149</v>
+        <v>-30.018</v>
       </c>
       <c r="H3">
-        <v>0.163</v>
+        <v>155.424</v>
       </c>
       <c r="I3">
-        <v>91.56399999999999</v>
+        <v>199.599</v>
       </c>
       <c r="J3">
-        <v>0.615</v>
+        <v>562.254</v>
       </c>
       <c r="K3">
-        <v>94.401</v>
+        <v>73.964</v>
       </c>
       <c r="L3">
-        <v>96.883</v>
+        <v>83.111</v>
       </c>
       <c r="M3">
-        <v>98.636</v>
+        <v>86.464</v>
       </c>
       <c r="N3">
-        <v>98.474</v>
+        <v>86.631</v>
       </c>
       <c r="O3">
-        <v>99.227</v>
+        <v>96.779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>0.004</v>
+        <v>24.586</v>
       </c>
       <c r="C4">
-        <v>0.003</v>
+        <v>26.037</v>
       </c>
       <c r="D4">
-        <v>-12.896</v>
+        <v>5.9</v>
       </c>
       <c r="E4">
-        <v>0.001</v>
+        <v>6.925</v>
       </c>
       <c r="F4">
-        <v>0.002</v>
+        <v>16.171</v>
       </c>
       <c r="G4">
-        <v>-37.116</v>
+        <v>-37.892</v>
       </c>
       <c r="H4">
-        <v>0.001</v>
+        <v>3.941</v>
       </c>
       <c r="I4">
-        <v>-33.761</v>
+        <v>-43.095</v>
       </c>
       <c r="J4">
-        <v>0.011</v>
+        <v>77.66</v>
       </c>
       <c r="K4">
-        <v>4.509</v>
+        <v>23.797</v>
       </c>
       <c r="L4">
-        <v>2.549</v>
+        <v>13.206</v>
       </c>
       <c r="M4">
-        <v>1.087</v>
+        <v>11.542</v>
       </c>
       <c r="N4">
-        <v>1.334</v>
+        <v>12.216</v>
       </c>
       <c r="O4">
-        <v>0.378</v>
+        <v>2.454</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H5">
-        <v>0.001</v>
+        <v>0.625</v>
       </c>
       <c r="J5">
-        <v>0.001</v>
+        <v>0.625</v>
       </c>
       <c r="O5">
-        <v>0.337</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.042</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.975</v>
       </c>
       <c r="D6">
-        <v>-68.23999999999999</v>
+        <v>-6.437</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.611</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.847</v>
       </c>
       <c r="G6">
-        <v>21.622</v>
+        <v>-13.036</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.487</v>
       </c>
       <c r="I6">
-        <v>-54.054</v>
+        <v>-20.327</v>
       </c>
       <c r="J6">
-        <v>0.001</v>
+        <v>3.961</v>
       </c>
       <c r="K6">
-        <v>0.27</v>
+        <v>1.008</v>
       </c>
       <c r="L6">
-        <v>0.056</v>
+        <v>0.494</v>
       </c>
       <c r="M6">
-        <v>0.08599999999999999</v>
+        <v>1.018</v>
       </c>
       <c r="N6">
-        <v>0.056</v>
+        <v>0.64</v>
       </c>
       <c r="O6">
-        <v>0.021</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="D7">
-        <v>-48.571</v>
+        <v>-68.749</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="G7">
-        <v>344.444</v>
+        <v>75.61499999999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="I7">
-        <v>-66.25</v>
+        <v>-49.872</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.514</v>
       </c>
       <c r="K7">
-        <v>0.041</v>
+        <v>0.185</v>
       </c>
       <c r="L7">
-        <v>0.014</v>
+        <v>0.03</v>
       </c>
       <c r="M7">
-        <v>0.093</v>
+        <v>0.175</v>
       </c>
       <c r="N7">
-        <v>0.05</v>
+        <v>0.079</v>
       </c>
       <c r="O7">
-        <v>0.016</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.172</v>
       </c>
       <c r="D8">
-        <v>2250</v>
+        <v>220.011</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="G8">
-        <v>-62.766</v>
+        <v>-79.83799999999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="I8">
-        <v>57.143</v>
+        <v>117.253</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.308</v>
       </c>
       <c r="K8">
-        <v>0.005</v>
+        <v>0.052</v>
       </c>
       <c r="L8">
-        <v>0.07099999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M8">
-        <v>0.016</v>
+        <v>0.025</v>
       </c>
       <c r="N8">
-        <v>0.022</v>
+        <v>0.026</v>
       </c>
       <c r="O8">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>5.895</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>233.333</v>
+        <v>0.026</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0.003</v>
-      </c>
-      <c r="N9">
-        <v>0.002</v>
+        <v>5.921</v>
+      </c>
+      <c r="L9">
+        <v>2.99</v>
       </c>
       <c r="O9">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>0.059</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>43.75</v>
+        <v>0.059</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="I10">
+        <v>-84.86799999999999</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0.019</v>
-      </c>
-      <c r="L10">
-        <v>0.012</v>
+        <v>0.128</v>
+      </c>
+      <c r="M10">
+        <v>0.099</v>
       </c>
       <c r="N10">
-        <v>0.014</v>
+        <v>0.045</v>
       </c>
       <c r="O10">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="B11">
+        <v>0.022</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="D11">
+        <v>281.492</v>
+      </c>
+      <c r="F11">
+        <v>0.015</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-82.004</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.123</v>
+      </c>
+      <c r="K11">
+        <v>0.021</v>
       </c>
       <c r="L11">
-        <v>0.374</v>
+        <v>0.043</v>
+      </c>
+      <c r="N11">
+        <v>0.011</v>
       </c>
       <c r="O11">
         <v>0.001</v>
@@ -6717,10 +9871,10 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -6729,160 +9883,160 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="K12">
-        <v>0.02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D13">
-        <v>-21.739</v>
+        <v>-87.29600000000001</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="G13">
-        <v>-77.77800000000001</v>
+        <v>209.359</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.281</v>
       </c>
       <c r="K13">
-        <v>0.027</v>
+        <v>0.16</v>
       </c>
       <c r="L13">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="M13">
-        <v>0.002</v>
+        <v>0.049</v>
       </c>
       <c r="N13">
-        <v>0.003</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="L14">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="M15">
-        <v>0.002</v>
+        <v>0.019</v>
       </c>
       <c r="N15">
-        <v>0.001</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.001</v>
+        <v>0.361</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="D16">
-        <v>-94.483</v>
+        <v>-93.87</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="G16">
-        <v>-75</v>
+        <v>-22.163</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.001</v>
+        <v>0.413</v>
       </c>
       <c r="K16">
-        <v>0.673</v>
+        <v>0.349</v>
       </c>
       <c r="L16">
-        <v>0.024</v>
+        <v>0.011</v>
       </c>
       <c r="M16">
-        <v>0.002</v>
+        <v>0.022</v>
       </c>
       <c r="N16">
-        <v>0.005</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="N17">
-        <v>0.001</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L18">
         <v>0.001</v>
@@ -6890,36 +10044,36 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D19">
-        <v>-75</v>
+        <v>-72.825</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K19">
+        <v>0.038</v>
+      </c>
+      <c r="L19">
         <v>0.005</v>
-      </c>
-      <c r="L19">
-        <v>0.001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.278</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6928,18 +10082,18 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.278</v>
       </c>
       <c r="K20">
-        <v>0.006</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6948,51 +10102,51 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="K21">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D22">
-        <v>-85.714</v>
+        <v>-98.40600000000001</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.352</v>
       </c>
       <c r="G22">
-        <v>6000</v>
+        <v>42626.667</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.758</v>
       </c>
       <c r="K22">
-        <v>0.008</v>
+        <v>0.05</v>
       </c>
       <c r="L22">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.07099999999999999</v>
+        <v>0.588</v>
       </c>
       <c r="N22">
-        <v>0.038</v>
+        <v>0.266</v>
       </c>
     </row>
   </sheetData>
@@ -7001,6 +10155,732 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.133</v>
+      </c>
+      <c r="D2">
+        <v>54.12</v>
+      </c>
+      <c r="E2">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.16</v>
+      </c>
+      <c r="G2">
+        <v>20.176</v>
+      </c>
+      <c r="H2">
+        <v>0.164</v>
+      </c>
+      <c r="I2">
+        <v>90.425</v>
+      </c>
+      <c r="J2">
+        <v>0.629</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0.081</v>
+      </c>
+      <c r="C3">
+        <v>0.129</v>
+      </c>
+      <c r="D3">
+        <v>58.172</v>
+      </c>
+      <c r="E3">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.157</v>
+      </c>
+      <c r="G3">
+        <v>22.149</v>
+      </c>
+      <c r="H3">
+        <v>0.163</v>
+      </c>
+      <c r="I3">
+        <v>91.56399999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.615</v>
+      </c>
+      <c r="K3">
+        <v>94.401</v>
+      </c>
+      <c r="L3">
+        <v>96.883</v>
+      </c>
+      <c r="M3">
+        <v>98.636</v>
+      </c>
+      <c r="N3">
+        <v>98.474</v>
+      </c>
+      <c r="O3">
+        <v>99.227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>0.004</v>
+      </c>
+      <c r="C4">
+        <v>0.003</v>
+      </c>
+      <c r="D4">
+        <v>-12.896</v>
+      </c>
+      <c r="E4">
+        <v>0.001</v>
+      </c>
+      <c r="F4">
+        <v>0.002</v>
+      </c>
+      <c r="G4">
+        <v>-37.116</v>
+      </c>
+      <c r="H4">
+        <v>0.001</v>
+      </c>
+      <c r="I4">
+        <v>-33.761</v>
+      </c>
+      <c r="J4">
+        <v>0.011</v>
+      </c>
+      <c r="K4">
+        <v>4.509</v>
+      </c>
+      <c r="L4">
+        <v>2.549</v>
+      </c>
+      <c r="M4">
+        <v>1.087</v>
+      </c>
+      <c r="N4">
+        <v>1.334</v>
+      </c>
+      <c r="O4">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>0.001</v>
+      </c>
+      <c r="J5">
+        <v>0.001</v>
+      </c>
+      <c r="O5">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-68.23999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>21.622</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-54.054</v>
+      </c>
+      <c r="J6">
+        <v>0.001</v>
+      </c>
+      <c r="K6">
+        <v>0.27</v>
+      </c>
+      <c r="L6">
+        <v>0.056</v>
+      </c>
+      <c r="M6">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.056</v>
+      </c>
+      <c r="O6">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-48.571</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>344.444</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-66.25</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0.041</v>
+      </c>
+      <c r="L7">
+        <v>0.014</v>
+      </c>
+      <c r="M7">
+        <v>0.093</v>
+      </c>
+      <c r="N7">
+        <v>0.05</v>
+      </c>
+      <c r="O7">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2250</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-62.766</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>57.143</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0.005</v>
+      </c>
+      <c r="L8">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.016</v>
+      </c>
+      <c r="N8">
+        <v>0.022</v>
+      </c>
+      <c r="O8">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>233.333</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.003</v>
+      </c>
+      <c r="N9">
+        <v>0.002</v>
+      </c>
+      <c r="O9">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>43.75</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0.019</v>
+      </c>
+      <c r="L10">
+        <v>0.012</v>
+      </c>
+      <c r="N10">
+        <v>0.014</v>
+      </c>
+      <c r="O10">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0.374</v>
+      </c>
+      <c r="O11">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-21.739</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-77.77800000000001</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.027</v>
+      </c>
+      <c r="L13">
+        <v>0.014</v>
+      </c>
+      <c r="M13">
+        <v>0.002</v>
+      </c>
+      <c r="N13">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.002</v>
+      </c>
+      <c r="N15">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>0.001</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-94.483</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-75</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.001</v>
+      </c>
+      <c r="K16">
+        <v>0.673</v>
+      </c>
+      <c r="L16">
+        <v>0.024</v>
+      </c>
+      <c r="M16">
+        <v>0.002</v>
+      </c>
+      <c r="N16">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>-75</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.005</v>
+      </c>
+      <c r="L19">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>-85.714</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>6000</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.008</v>
+      </c>
+      <c r="L22">
+        <v>0.001</v>
+      </c>
+      <c r="M22">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -7010,7 +10890,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7037,27 +10917,27 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>26.101</v>
@@ -7104,7 +10984,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>24.586</v>
@@ -7151,7 +11031,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>1.042</v>
@@ -7198,7 +11078,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0.191</v>
@@ -7245,7 +11125,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>0.054</v>
@@ -7292,7 +11172,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>5.895</v>
@@ -7315,7 +11195,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>0.022</v>
@@ -7353,7 +11233,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>0.166</v>
@@ -7394,7 +11274,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>0.019</v>
@@ -7411,7 +11291,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F11">
         <v>0.018</v>
@@ -7425,7 +11305,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>0.002</v>
@@ -7442,7 +11322,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>0.04</v>
@@ -7464,301 +11344,6 @@
       </c>
       <c r="L13">
         <v>0.005</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>48.75</v>
-      </c>
-      <c r="C2">
-        <v>57.914</v>
-      </c>
-      <c r="D2">
-        <v>18.798</v>
-      </c>
-      <c r="E2">
-        <v>10.936</v>
-      </c>
-      <c r="F2">
-        <v>35.726</v>
-      </c>
-      <c r="G2">
-        <v>-38.312</v>
-      </c>
-      <c r="H2">
-        <v>13.658</v>
-      </c>
-      <c r="I2">
-        <v>24.883</v>
-      </c>
-      <c r="J2">
-        <v>166.984</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3">
-        <v>20.226</v>
-      </c>
-      <c r="C3">
-        <v>20.687</v>
-      </c>
-      <c r="D3">
-        <v>2.279</v>
-      </c>
-      <c r="E3">
-        <v>3.63</v>
-      </c>
-      <c r="F3">
-        <v>14.068</v>
-      </c>
-      <c r="G3">
-        <v>-31.997</v>
-      </c>
-      <c r="H3">
-        <v>7.129</v>
-      </c>
-      <c r="I3">
-        <v>96.377</v>
-      </c>
-      <c r="J3">
-        <v>65.73999999999999</v>
-      </c>
-      <c r="K3">
-        <v>41.489</v>
-      </c>
-      <c r="L3">
-        <v>35.72</v>
-      </c>
-      <c r="M3">
-        <v>33.196</v>
-      </c>
-      <c r="N3">
-        <v>39.377</v>
-      </c>
-      <c r="O3">
-        <v>52.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4">
-        <v>15.706</v>
-      </c>
-      <c r="C4">
-        <v>22.045</v>
-      </c>
-      <c r="D4">
-        <v>40.367</v>
-      </c>
-      <c r="E4">
-        <v>4.744</v>
-      </c>
-      <c r="F4">
-        <v>12.229</v>
-      </c>
-      <c r="G4">
-        <v>-44.526</v>
-      </c>
-      <c r="H4">
-        <v>5.343</v>
-      </c>
-      <c r="I4">
-        <v>12.61</v>
-      </c>
-      <c r="J4">
-        <v>60.067</v>
-      </c>
-      <c r="K4">
-        <v>32.216</v>
-      </c>
-      <c r="L4">
-        <v>38.066</v>
-      </c>
-      <c r="M4">
-        <v>43.382</v>
-      </c>
-      <c r="N4">
-        <v>34.231</v>
-      </c>
-      <c r="O4">
-        <v>39.118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5">
-        <v>5.438</v>
-      </c>
-      <c r="C5">
-        <v>4.149</v>
-      </c>
-      <c r="D5">
-        <v>-23.702</v>
-      </c>
-      <c r="E5">
-        <v>1.112</v>
-      </c>
-      <c r="F5">
-        <v>4.447</v>
-      </c>
-      <c r="G5">
-        <v>7.188</v>
-      </c>
-      <c r="H5">
-        <v>0.634</v>
-      </c>
-      <c r="I5">
-        <v>-43.008</v>
-      </c>
-      <c r="J5">
-        <v>15.78</v>
-      </c>
-      <c r="K5">
-        <v>11.155</v>
-      </c>
-      <c r="L5">
-        <v>7.164</v>
-      </c>
-      <c r="M5">
-        <v>10.165</v>
-      </c>
-      <c r="N5">
-        <v>12.449</v>
-      </c>
-      <c r="O5">
-        <v>4.639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6">
-        <v>7.38</v>
-      </c>
-      <c r="C6">
-        <v>11.033</v>
-      </c>
-      <c r="D6">
-        <v>49.487</v>
-      </c>
-      <c r="E6">
-        <v>1.45</v>
-      </c>
-      <c r="F6">
-        <v>4.981</v>
-      </c>
-      <c r="G6">
-        <v>-54.848</v>
-      </c>
-      <c r="H6">
-        <v>0.552</v>
-      </c>
-      <c r="I6">
-        <v>-61.915</v>
-      </c>
-      <c r="J6">
-        <v>25.397</v>
-      </c>
-      <c r="K6">
-        <v>15.139</v>
-      </c>
-      <c r="L6">
-        <v>19.05</v>
-      </c>
-      <c r="M6">
-        <v>13.257</v>
-      </c>
-      <c r="N6">
-        <v>13.943</v>
-      </c>
-      <c r="O6">
-        <v>4.043</v>
       </c>
     </row>
   </sheetData>
